--- a/biology/Médecine/Sid_Watkins/Sid_Watkins.xlsx
+++ b/biology/Médecine/Sid_Watkins/Sid_Watkins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eric Sidney Watkins est un neurochirurgien britannique, né le 6 septembre 1928, à Liverpool, mort le 12 septembre 2012.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sidney « Sid » Watkins est le fils d'un ancien mineur devenu garagiste. Il travaille avec son père jusqu'à son diplôme de médecine obtenu en 1956. Il devient spécialiste en neurochirurgie deux ans plus tard et officie sur le circuit de Silverstone.
 Il franchit l'Atlantique en 1962 et emménage à Syracuse dans l'État de New York tout en officiant sur le circuit de Watkins Glen où, face au manque de préparation des secours, il apporte lui-même son matériel médical d'urgence.
@@ -525,7 +539,7 @@
 Il est le témoin direct du week-end tragique d'Imola, en 1994, où Roland Ratzenberger puis son ami Ayrton Senna meurent. L'année suivante, il fait repartir, par deux fois, le cœur de Mika Häkkinen, après une trachéotomie, qui vient de s'écraser contre un mur du circuit d'Adelaïde. 
 En 2004, il devient président de l'Institut pour la sécurité du sport automobile.
 Après sa retraite, en 2005, il est reconnu comme l'un des principaux artisans de la sécurité du sport automobile par la FIA. Il reste néanmoins président de l'Institut pour la sécurité du sport automobile jusqu'en 2011 et reçoit la Médaille d'or du sport automobile. Il cède son poste à Gary Hartstein.
-Il meurt le 12 septembre 2012[1].
+Il meurt le 12 septembre 2012.
 </t>
         </is>
       </c>
